--- a/biology/Histoire de la zoologie et de la botanique/Cosimo_Alessandro_Collini/Cosimo_Alessandro_Collini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cosimo_Alessandro_Collini/Cosimo_Alessandro_Collini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosimo Alessandro Collini ou Côme Alexandre Collini (Florence, 14 octobre 1727-Mannheim, 21 mars 1806) est un historien italien, secrétaire de Voltaire de 1752 à 1756. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille noble, il fait des études de droit et rencontre Voltaire en 1750 à Berlin. Ce dernier l'emploie comme secrétaire de 1752 à 1756. Collini l'aide dans la composition des Annales de l'Empire. 
 Collini passe ensuite au service de l'électeur Charles Théodore de Bavière qui en fait son secrétaire intime et son historiographe. 
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Discours sur l’histoire d’Allemagne (Frankfurt, Koch und Esslinger, 1761).
 Précis de l’histoire du Palatinat du Rhin (Frankfurt und Leipzig, 1763).
@@ -597,7 +613,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Mannheim ainsi que le Collini-Center (de) ont été nommés en son honneur. 
 </t>
